--- a/通信协议.xlsx
+++ b/通信协议.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="176">
   <si>
     <t xml:space="preserve">项目名称</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">服务器连接超时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">身份</t>
   </si>
   <si>
     <r>
@@ -84,7 +87,6 @@
         <sz val="10.5"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">账号</t>
     </r>
@@ -93,7 +95,6 @@
         <sz val="10.5"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ID</t>
     </r>
@@ -129,9 +130,6 @@
     <t xml:space="preserve">B00000</t>
   </si>
   <si>
-    <t xml:space="preserve">身份</t>
-  </si>
-  <si>
     <t xml:space="preserve">年龄</t>
   </si>
   <si>
@@ -159,12 +157,15 @@
     <t xml:space="preserve">上传头像</t>
   </si>
   <si>
-    <t xml:space="preserve">UploadProfilePhoto</t>
+    <t xml:space="preserve">UploadAvatar</t>
   </si>
   <si>
     <t xml:space="preserve">B00001</t>
   </si>
   <si>
+    <t xml:space="preserve">账号ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">头像图片</t>
   </si>
   <si>
@@ -177,7 +178,7 @@
     <t xml:space="preserve">上传成功</t>
   </si>
   <si>
-    <t xml:space="preserve">将图片缓存在服务器本地后返回图片本地url</t>
+    <t xml:space="preserve">将图片缓存在服务器本地后</t>
   </si>
   <si>
     <t xml:space="preserve">患者端</t>
@@ -200,7 +201,6 @@
         <sz val="10.5"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">医生</t>
     </r>
@@ -209,7 +209,6 @@
         <sz val="10.5"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ID</t>
     </r>
@@ -225,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">C00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">预约号</t>
   </si>
   <si>
     <r>
@@ -232,7 +234,6 @@
         <sz val="10.5"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">患者</t>
     </r>
@@ -241,7 +242,6 @@
         <sz val="10.5"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ID</t>
     </r>
@@ -337,9 +337,6 @@
     <t xml:space="preserve">C00101</t>
   </si>
   <si>
-    <t xml:space="preserve">账号ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">密码非法，未更新密码</t>
   </si>
   <si>
@@ -433,10 +430,10 @@
     <t xml:space="preserve">接受者ID</t>
   </si>
   <si>
+    <t xml:space="preserve">发送时间</t>
+  </si>
+  <si>
     <t xml:space="preserve">文件名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发送时间</t>
   </si>
   <si>
     <t xml:space="preserve">附件过大</t>
@@ -610,7 +607,6 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -631,26 +627,22 @@
       <sz val="10.5"/>
       <name val="等线"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -746,7 +738,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topRight" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -883,29 +875,32 @@
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="N3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
@@ -921,28 +916,28 @@
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>31</v>
@@ -963,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>36</v>
@@ -979,7 +974,7 @@
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
@@ -993,25 +988,31 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -1027,16 +1028,16 @@
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>18</v>
@@ -1045,16 +1046,16 @@
         <v>1</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -1063,43 +1064,46 @@
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>57</v>
+      <c r="F9" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -1108,52 +1112,52 @@
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -1162,37 +1166,37 @@
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
@@ -1202,31 +1206,31 @@
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
@@ -1236,43 +1240,43 @@
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
@@ -1282,25 +1286,25 @@
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>31</v>
@@ -1312,7 +1316,7 @@
         <v>33</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>35</v>
@@ -1321,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
@@ -1338,34 +1342,34 @@
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T16" s="6"/>
       <c r="Z16" s="3"/>
@@ -1376,40 +1380,40 @@
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
@@ -1418,25 +1422,25 @@
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>31</v>
@@ -1448,7 +1452,7 @@
         <v>33</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>35</v>
@@ -1457,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -1472,40 +1476,40 @@
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
@@ -1522,46 +1526,47 @@
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="J21" s="0"/>
       <c r="N21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
@@ -1570,40 +1575,40 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
@@ -1613,37 +1618,37 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>121</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
@@ -1652,40 +1657,40 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>121</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
@@ -1694,34 +1699,34 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
@@ -1731,40 +1736,40 @@
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
@@ -1773,7 +1778,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1782,108 +1787,108 @@
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K29" s="0"/>
       <c r="N29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/通信协议.xlsx
+++ b/通信协议.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="185">
   <si>
     <t xml:space="preserve">项目名称</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">服务端传给服务端的操作指令（str类型）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">性别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年龄</t>
   </si>
   <si>
     <t xml:space="preserve">客户端操作成功弹窗内容</t>
@@ -130,16 +136,13 @@
     <t xml:space="preserve">B00000</t>
   </si>
   <si>
-    <t xml:space="preserve">年龄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性别</t>
+    <t xml:space="preserve">头像url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家庭住址/所属科室</t>
   </si>
   <si>
     <t xml:space="preserve">电话</t>
-  </si>
-  <si>
-    <t xml:space="preserve">家庭住址/所属科室</t>
   </si>
   <si>
     <t xml:space="preserve">个性签名</t>
@@ -217,13 +220,28 @@
     <t xml:space="preserve">返回所有医生ID和就诊科室</t>
   </si>
   <si>
+    <t xml:space="preserve">查询医生空闲时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QueryDoctorFree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医生ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医生空闲时间</t>
+  </si>
+  <si>
     <t xml:space="preserve">挂号</t>
   </si>
   <si>
     <t xml:space="preserve">Registration</t>
   </si>
   <si>
-    <t xml:space="preserve">C00001</t>
+    <t xml:space="preserve">C00010</t>
   </si>
   <si>
     <t xml:space="preserve">预约号</t>
@@ -262,13 +280,25 @@
     <t xml:space="preserve">数据库插入挂号信息</t>
   </si>
   <si>
+    <t xml:space="preserve">查看个人信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QueryProfiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">个人信息</t>
+  </si>
+  <si>
     <t xml:space="preserve">查看病历</t>
   </si>
   <si>
     <t xml:space="preserve">QueryMedicalRecoed</t>
   </si>
   <si>
-    <t xml:space="preserve">C00010</t>
+    <t xml:space="preserve">C00100</t>
   </si>
   <si>
     <t xml:space="preserve">患者ID</t>
@@ -280,7 +310,7 @@
     <t xml:space="preserve">患者基本信息</t>
   </si>
   <si>
-    <t xml:space="preserve">医生ID</t>
+    <t xml:space="preserve">医生姓名</t>
   </si>
   <si>
     <t xml:space="preserve">医生诊断</t>
@@ -301,15 +331,12 @@
     <t xml:space="preserve">QueryPrescriptionPay</t>
   </si>
   <si>
-    <t xml:space="preserve">C00011</t>
+    <t xml:space="preserve">C00101</t>
   </si>
   <si>
     <t xml:space="preserve">暂无处方和缴费</t>
   </si>
   <si>
-    <t xml:space="preserve">医生姓名</t>
-  </si>
-  <si>
     <t xml:space="preserve">处方和缴费信息</t>
   </si>
   <si>
@@ -319,7 +346,7 @@
     <t xml:space="preserve">QueryDoctoeInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">C00100</t>
+    <t xml:space="preserve">C00110</t>
   </si>
   <si>
     <t xml:space="preserve">暂无预约医生</t>
@@ -334,7 +361,7 @@
     <t xml:space="preserve">DPCommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">C00101</t>
+    <t xml:space="preserve">C00111</t>
   </si>
   <si>
     <t xml:space="preserve">密码非法，未更新密码</t>
@@ -355,7 +382,7 @@
     <t xml:space="preserve">EditProfile</t>
   </si>
   <si>
-    <t xml:space="preserve">C00110</t>
+    <t xml:space="preserve">C01000</t>
   </si>
   <si>
     <t xml:space="preserve">家庭住址</t>
@@ -529,6 +556,12 @@
     <t xml:space="preserve">服务器传给数据库的参数</t>
   </si>
   <si>
+    <t xml:space="preserve">数据库错误</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查询失败</t>
+  </si>
+  <si>
     <t xml:space="preserve">数据库通用接口</t>
   </si>
   <si>
@@ -559,10 +592,7 @@
     <t xml:space="preserve">条件字段值</t>
   </si>
   <si>
-    <t xml:space="preserve">数据库错误</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查询失败</t>
+    <t xml:space="preserve">插入失败</t>
   </si>
   <si>
     <t xml:space="preserve">插入</t>
@@ -580,7 +610,7 @@
     <t xml:space="preserve">字段值</t>
   </si>
   <si>
-    <t xml:space="preserve">插入失败</t>
+    <t xml:space="preserve">更新失败</t>
   </si>
   <si>
     <t xml:space="preserve">更新</t>
@@ -590,9 +620,6 @@
   </si>
   <si>
     <t xml:space="preserve">F00010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新失败</t>
   </si>
 </sst>
 </file>
@@ -687,7 +714,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -712,6 +739,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -733,12 +764,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD31"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topRight" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -752,20 +783,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="25.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="25.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="24.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="24.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="23" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -779,73 +812,63 @@
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="0"/>
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2"/>
       <c r="S1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="3"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="N2" s="0"/>
       <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -853,100 +876,103 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="3"/>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="N3" s="0"/>
+      <c r="O3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="3"/>
+      <c r="S3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z4" s="3"/>
+      <c r="N4" s="0"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>34</v>
@@ -954,56 +980,57 @@
       <c r="M5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>22</v>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="S5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="3"/>
+      <c r="AA5" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="N6" s="0"/>
+      <c r="O6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>45</v>
@@ -1011,922 +1038,1019 @@
       <c r="R6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="S6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA6" s="3"/>
+      <c r="AA6" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z7" s="3"/>
+      <c r="N7" s="0"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="0"/>
+      <c r="O8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="U8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AA8" s="3"/>
+      <c r="AA8" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C9" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="N9" s="0"/>
+      <c r="O9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="U9" s="5"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="H10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="N10" s="0"/>
+      <c r="O10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="AA10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="0"/>
+      <c r="O11" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z11" s="3"/>
+        <v>74</v>
+      </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="0"/>
+      <c r="O12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="AA12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" s="0"/>
+      <c r="O13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="1" t="s">
+      <c r="T13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="0"/>
+      <c r="O14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z15" s="3"/>
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="0"/>
+      <c r="O15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="T16" s="6"/>
-      <c r="Z16" s="3"/>
+        <v>24</v>
+      </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N17" s="0"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="0"/>
+      <c r="O18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="U18" s="7"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>92</v>
+        <v>59</v>
+      </c>
+      <c r="N19" s="0"/>
+      <c r="O19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="0"/>
+      <c r="O20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" s="0"/>
-      <c r="N21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="N21" s="0"/>
+      <c r="O21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>125</v>
+        <v>24</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z22" s="3"/>
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N22" s="0"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="AA23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N24" s="0"/>
+      <c r="O24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="1" t="s">
+      <c r="T24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="N25" s="0"/>
+      <c r="O25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="N25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N26" s="0"/>
+      <c r="O26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="AA26" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="3" t="s">
+      <c r="AE26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="N27" s="0"/>
+      <c r="O27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="0"/>
+      <c r="O28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="AA28" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="O30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K29" s="0"/>
-      <c r="N29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="P29" s="1" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="K31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="G32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N32" s="0"/>
+      <c r="O32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="33">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:Y2"/>
-    <mergeCell ref="Z1:AD2"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="Z5:AD5"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:Z2"/>
+    <mergeCell ref="AA1:AE2"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="AA7:AE7"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AA13:AE13"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AA15:AE15"/>
+    <mergeCell ref="AA16:AE16"/>
+    <mergeCell ref="AA17:AE17"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="AA19:AE19"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="AA21:AE21"/>
+    <mergeCell ref="AA22:AE22"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="AA26:AE26"/>
+    <mergeCell ref="AA27:AE27"/>
+    <mergeCell ref="AA28:AE28"/>
+    <mergeCell ref="F30:J30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/通信协议.xlsx
+++ b/通信协议.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="185">
   <si>
     <t xml:space="preserve">项目名称</t>
   </si>
@@ -40,6 +40,12 @@
     <t xml:space="preserve">服务端传给服务端的操作指令（str类型）</t>
   </si>
   <si>
+    <t xml:space="preserve">性别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年龄</t>
+  </si>
+  <si>
     <t xml:space="preserve">客户端操作成功弹窗内容</t>
   </si>
   <si>
@@ -77,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">服务器连接超时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">身份</t>
   </si>
   <si>
     <r>
@@ -84,7 +93,6 @@
         <sz val="10.5"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">账号</t>
     </r>
@@ -93,7 +101,6 @@
         <sz val="10.5"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ID</t>
     </r>
@@ -129,21 +136,15 @@
     <t xml:space="preserve">B00000</t>
   </si>
   <si>
-    <t xml:space="preserve">身份</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年龄</t>
-  </si>
-  <si>
-    <t xml:space="preserve">性别</t>
+    <t xml:space="preserve">头像url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家庭住址/所属科室</t>
   </si>
   <si>
     <t xml:space="preserve">电话</t>
   </si>
   <si>
-    <t xml:space="preserve">家庭住址/所属科室</t>
-  </si>
-  <si>
     <t xml:space="preserve">个性签名</t>
   </si>
   <si>
@@ -159,12 +160,15 @@
     <t xml:space="preserve">上传头像</t>
   </si>
   <si>
-    <t xml:space="preserve">UploadProfilePhoto</t>
+    <t xml:space="preserve">UploadAvatar</t>
   </si>
   <si>
     <t xml:space="preserve">B00001</t>
   </si>
   <si>
+    <t xml:space="preserve">账号ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">头像图片</t>
   </si>
   <si>
@@ -177,7 +181,7 @@
     <t xml:space="preserve">上传成功</t>
   </si>
   <si>
-    <t xml:space="preserve">将图片缓存在服务器本地后返回图片本地url</t>
+    <t xml:space="preserve">将图片缓存在服务器本地后</t>
   </si>
   <si>
     <t xml:space="preserve">患者端</t>
@@ -200,7 +204,6 @@
         <sz val="10.5"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">医生</t>
     </r>
@@ -209,7 +212,6 @@
         <sz val="10.5"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ID</t>
     </r>
@@ -218,13 +220,31 @@
     <t xml:space="preserve">返回所有医生ID和就诊科室</t>
   </si>
   <si>
+    <t xml:space="preserve">查询医生空闲时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QueryDoctorFree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医生ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医生空闲时间</t>
+  </si>
+  <si>
     <t xml:space="preserve">挂号</t>
   </si>
   <si>
     <t xml:space="preserve">Registration</t>
   </si>
   <si>
-    <t xml:space="preserve">C00001</t>
+    <t xml:space="preserve">C00010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">预约号</t>
   </si>
   <si>
     <r>
@@ -232,7 +252,6 @@
         <sz val="10.5"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">患者</t>
     </r>
@@ -241,7 +260,6 @@
         <sz val="10.5"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ID</t>
     </r>
@@ -262,13 +280,25 @@
     <t xml:space="preserve">数据库插入挂号信息</t>
   </si>
   <si>
+    <t xml:space="preserve">查看个人信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QueryProfiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">个人信息</t>
+  </si>
+  <si>
     <t xml:space="preserve">查看病历</t>
   </si>
   <si>
     <t xml:space="preserve">QueryMedicalRecoed</t>
   </si>
   <si>
-    <t xml:space="preserve">C00010</t>
+    <t xml:space="preserve">C00100</t>
   </si>
   <si>
     <t xml:space="preserve">患者ID</t>
@@ -280,7 +310,7 @@
     <t xml:space="preserve">患者基本信息</t>
   </si>
   <si>
-    <t xml:space="preserve">医生ID</t>
+    <t xml:space="preserve">医生姓名</t>
   </si>
   <si>
     <t xml:space="preserve">医生诊断</t>
@@ -301,15 +331,12 @@
     <t xml:space="preserve">QueryPrescriptionPay</t>
   </si>
   <si>
-    <t xml:space="preserve">C00011</t>
+    <t xml:space="preserve">C00101</t>
   </si>
   <si>
     <t xml:space="preserve">暂无处方和缴费</t>
   </si>
   <si>
-    <t xml:space="preserve">医生姓名</t>
-  </si>
-  <si>
     <t xml:space="preserve">处方和缴费信息</t>
   </si>
   <si>
@@ -319,7 +346,7 @@
     <t xml:space="preserve">QueryDoctoeInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">C00100</t>
+    <t xml:space="preserve">C00110</t>
   </si>
   <si>
     <t xml:space="preserve">暂无预约医生</t>
@@ -334,10 +361,7 @@
     <t xml:space="preserve">DPCommunication</t>
   </si>
   <si>
-    <t xml:space="preserve">C00101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">账号ID</t>
+    <t xml:space="preserve">C00111</t>
   </si>
   <si>
     <t xml:space="preserve">密码非法，未更新密码</t>
@@ -358,7 +382,7 @@
     <t xml:space="preserve">EditProfile</t>
   </si>
   <si>
-    <t xml:space="preserve">C00110</t>
+    <t xml:space="preserve">C01000</t>
   </si>
   <si>
     <t xml:space="preserve">家庭住址</t>
@@ -433,12 +457,12 @@
     <t xml:space="preserve">接受者ID</t>
   </si>
   <si>
+    <t xml:space="preserve">发送时间</t>
+  </si>
+  <si>
     <t xml:space="preserve">文件名</t>
   </si>
   <si>
-    <t xml:space="preserve">发送时间</t>
-  </si>
-  <si>
     <t xml:space="preserve">附件过大</t>
   </si>
   <si>
@@ -532,6 +556,12 @@
     <t xml:space="preserve">服务器传给数据库的参数</t>
   </si>
   <si>
+    <t xml:space="preserve">数据库错误</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查询失败</t>
+  </si>
+  <si>
     <t xml:space="preserve">数据库通用接口</t>
   </si>
   <si>
@@ -562,10 +592,7 @@
     <t xml:space="preserve">条件字段值</t>
   </si>
   <si>
-    <t xml:space="preserve">数据库错误</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查询失败</t>
+    <t xml:space="preserve">插入失败</t>
   </si>
   <si>
     <t xml:space="preserve">插入</t>
@@ -583,7 +610,7 @@
     <t xml:space="preserve">字段值</t>
   </si>
   <si>
-    <t xml:space="preserve">插入失败</t>
+    <t xml:space="preserve">更新失败</t>
   </si>
   <si>
     <t xml:space="preserve">更新</t>
@@ -593,9 +620,6 @@
   </si>
   <si>
     <t xml:space="preserve">F00010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新失败</t>
   </si>
 </sst>
 </file>
@@ -610,7 +634,6 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -631,26 +654,22 @@
       <sz val="10.5"/>
       <name val="等线"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -695,7 +714,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -720,6 +739,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -741,12 +764,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD31"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topRight" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -760,20 +783,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.33"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="25.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="25.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="24.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="24.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="23" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -787,73 +812,63 @@
         <v>3</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="0"/>
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2"/>
       <c r="S1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="3"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="N2" s="0"/>
       <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -861,97 +876,103 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="3"/>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="0"/>
+      <c r="O3" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="P3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA3" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
       <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z4" s="3"/>
+      <c r="N4" s="0"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>34</v>
@@ -959,740 +980,759 @@
       <c r="M5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>21</v>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="S5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AA5" s="3"/>
+      <c r="AA5" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="0"/>
+      <c r="O6" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="P6" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AA6" s="3"/>
+      <c r="S6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z7" s="3"/>
+      <c r="N7" s="0"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="0"/>
+      <c r="O8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA8" s="3"/>
+      <c r="U8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>21</v>
+      <c r="N9" s="0"/>
+      <c r="O9" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="U9" s="5"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="G10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>21</v>
+      <c r="J10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="0"/>
+      <c r="O10" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="AA10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="0"/>
+      <c r="O11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" s="0"/>
+      <c r="O12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="U12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
+      <c r="AA12" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
+      </c>
+      <c r="N13" s="0"/>
+      <c r="O13" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="P13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="T13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="0"/>
+      <c r="O14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z15" s="3"/>
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="0"/>
+      <c r="O15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="P16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="T16" s="6"/>
-      <c r="Z16" s="3"/>
+        <v>24</v>
+      </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N17" s="0"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="0"/>
+      <c r="O18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="U18" s="7"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
+      </c>
+      <c r="N19" s="0"/>
+      <c r="O19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
+        <v>118</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="0"/>
+      <c r="O20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="N21" s="0"/>
+      <c r="O21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>124</v>
+        <v>24</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z22" s="3"/>
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N22" s="0"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="B23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="J23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="AA23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N23" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N24" s="0"/>
+      <c r="O24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="T24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>140</v>
       </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
         <v>141</v>
       </c>
@@ -1703,225 +1743,314 @@
         <v>143</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>21</v>
+      <c r="N25" s="0"/>
+      <c r="O25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="P25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AE25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N26" s="0"/>
+      <c r="O26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U26" s="1" t="s">
+      <c r="AA26" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="3" t="s">
+      <c r="AE26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="N27" s="0"/>
+      <c r="O27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="0"/>
+      <c r="O28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V28" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="AA28" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="0"/>
-      <c r="N29" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="1" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="O30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="s">
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="N30" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="Q31" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N32" s="0"/>
+      <c r="O32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="N31" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="F33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="33">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:M2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:Y2"/>
-    <mergeCell ref="Z1:AD2"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z4:AD4"/>
-    <mergeCell ref="Z5:AD5"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="Z8:AD8"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="Z10:AD10"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="Z25:AD25"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:Z2"/>
+    <mergeCell ref="AA1:AE2"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="AA7:AE7"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AA13:AE13"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AA15:AE15"/>
+    <mergeCell ref="AA16:AE16"/>
+    <mergeCell ref="AA17:AE17"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="AA19:AE19"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="AA21:AE21"/>
+    <mergeCell ref="AA22:AE22"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="AA26:AE26"/>
+    <mergeCell ref="AA27:AE27"/>
+    <mergeCell ref="AA28:AE28"/>
+    <mergeCell ref="F30:J30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
